--- a/data/test_input.xlsx
+++ b/data/test_input.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://columbusglobal-my.sharepoint.com/personal/voev_columbusglobal_com/Documents/av_doc/python_scripts/optimize/nts/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://columbusglobal-my.sharepoint.com/personal/voev_columbusglobal_com/Documents/av_doc/Vehicle-Routing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="8_{1C197FCC-D555-4110-9B11-7FD88CA513E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2E3ECA48-29A3-424A-B72E-6E8B56796538}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="8_{1C197FCC-D555-4110-9B11-7FD88CA513E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4316D6DF-B4A5-4A02-A176-09D95997D74A}"/>
   <bookViews>
-    <workbookView xWindow="1308" yWindow="72" windowWidth="21732" windowHeight="11700" activeTab="3" xr2:uid="{A9E439BE-6E4E-4148-9B5A-691A88720DDA}"/>
+    <workbookView xWindow="336" yWindow="0" windowWidth="21732" windowHeight="11700" activeTab="4" xr2:uid="{A9E439BE-6E4E-4148-9B5A-691A88720DDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
     <sheet name="Cities" sheetId="2" r:id="rId2"/>
     <sheet name="Cars" sheetId="3" r:id="rId3"/>
     <sheet name="Orders" sheetId="4" r:id="rId4"/>
-    <sheet name="Routes" sheetId="5" r:id="rId5"/>
+    <sheet name="SimpleOrders" sheetId="6" r:id="rId5"/>
+    <sheet name="Routes" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
   <si>
     <t>minPeriod</t>
   </si>
@@ -87,18 +88,6 @@
     <t>Deliver_to</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>From</t>
   </si>
   <si>
@@ -109,6 +98,12 @@
   </si>
   <si>
     <t>Distance</t>
+  </si>
+  <si>
+    <t>ParamName</t>
+  </si>
+  <si>
+    <t>ParamValue</t>
   </si>
 </sst>
 </file>
@@ -461,27 +456,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2792880D-D28F-4619-B5A4-07E42ADBC81D}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>25</v>
       </c>
     </row>
@@ -542,10 +549,13 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -569,10 +579,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -583,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D3">
-        <v>90</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -598,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCF74F2-5841-483E-B084-25638E0734F9}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,7 +727,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>9</v>
@@ -735,11 +745,89 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCA095E-D3F7-49C8-BD5C-B9B8E0BE66A7}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E9:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>80</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>110</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723586A4-2014-4229-857C-3037F57FC317}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,19 +837,22 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -776,6 +867,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -790,6 +884,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -804,6 +901,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -818,6 +918,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -832,6 +935,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>

--- a/data/test_input.xlsx
+++ b/data/test_input.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://columbusglobal-my.sharepoint.com/personal/voev_columbusglobal_com/Documents/av_doc/Vehicle-Routing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="8_{1C197FCC-D555-4110-9B11-7FD88CA513E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4316D6DF-B4A5-4A02-A176-09D95997D74A}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="8_{1C197FCC-D555-4110-9B11-7FD88CA513E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{723B9F6F-E37C-4415-A002-D3264A6A9504}"/>
   <bookViews>
-    <workbookView xWindow="336" yWindow="0" windowWidth="21732" windowHeight="11700" activeTab="4" xr2:uid="{A9E439BE-6E4E-4148-9B5A-691A88720DDA}"/>
+    <workbookView xWindow="96" yWindow="300" windowWidth="21732" windowHeight="11700" activeTab="4" xr2:uid="{A9E439BE-6E4E-4148-9B5A-691A88720DDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
     <sheet name="Cities" sheetId="2" r:id="rId2"/>
-    <sheet name="Cars" sheetId="3" r:id="rId3"/>
-    <sheet name="Orders" sheetId="4" r:id="rId4"/>
-    <sheet name="SimpleOrders" sheetId="6" r:id="rId5"/>
-    <sheet name="Routes" sheetId="5" r:id="rId6"/>
+    <sheet name="Vehicles" sheetId="3" r:id="rId3"/>
+    <sheet name="Orders" sheetId="6" r:id="rId4"/>
+    <sheet name="Routes" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>minPeriod</t>
   </si>
@@ -605,150 +604,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCF74F2-5841-483E-B084-25638E0734F9}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>150</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>200</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>150</v>
-      </c>
-      <c r="D4">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>50</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCA095E-D3F7-49C8-BD5C-B9B8E0BE66A7}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
@@ -822,11 +681,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723586A4-2014-4229-857C-3037F57FC317}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
